--- a/examples/Workflow_Optimization/Reading_Excel_Data/data.xlsx
+++ b/examples/Workflow_Optimization/Reading_Excel_Data/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keivan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\feloopy\examples\Workflow_Optimization\Reading_Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6431DCB6-09B7-4E0E-8F36-E32EE71B9889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E2AF6-64DE-4C48-8C28-0CD2D82E192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5475" yWindow="2820" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p" sheetId="1" r:id="rId1"/>
     <sheet name="h" sheetId="2" r:id="rId2"/>
+    <sheet name="k" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>i1</t>
   </si>
@@ -399,13 +400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -425,7 +426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -445,120 +446,120 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <f ca="1">RAND()</f>
-        <v>0.28761930204032005</v>
+        <v>0.54022699105015881</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:G6" ca="1" si="0">RAND()</f>
-        <v>0.71968802486563976</v>
+        <v>0.83602896145873939</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1989555842908306</v>
+        <v>0.34667218550613033</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63280500906837445</v>
+        <v>0.15451429777636094</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76439827017982087</v>
+        <v>0.74258988243432233</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37609746217920126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.64994404534333483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B6" ca="1" si="1">RAND()</f>
-        <v>0.80424520279178813</v>
+        <v>0.21106272226677536</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9005481550504415</v>
+        <v>0.13095767197325403</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85632176899536294</v>
+        <v>0.85000167429900353</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54342515036941441</v>
+        <v>0.93352263445496675</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47844034365891785</v>
+        <v>0.49921584444680012</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6208386763260871E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.14757275235342482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90154772148093953</v>
+        <v>0.44168350981486937</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2043551354082203E-2</v>
+        <v>0.90808103303845089</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38217753200630877</v>
+        <v>0.65740526799919641</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65311698163758891</v>
+        <v>0.25892413655959667</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88027053161330304</v>
+        <v>0.62617504792969891</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44136391681464138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.87798073094121576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57198433551739847</v>
+        <v>0.77146113766243518</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44763163874894318</v>
+        <v>0.91361060091107471</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58758418952320224</v>
+        <v>0.48588575974293058</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30488499810875291</v>
+        <v>0.32076771763955536</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2326756244893875</v>
+        <v>0.84167542667623485</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12541842674570158</v>
+        <v>0.17198757986457724</v>
       </c>
     </row>
   </sheetData>
@@ -575,9 +576,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>6</v>
       </c>
@@ -597,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -617,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -626,30 +627,30 @@
       </c>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.10229540688412064</v>
+        <v>0.61932478110702094</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:H6" ca="1" si="0">RAND()</f>
-        <v>0.13398779703276587</v>
+        <v>0.4557934839557547</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96509168707526349</v>
+        <v>0.34636144323714346</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15959941955440748</v>
+        <v>0.85645346244940812</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3268344716181012</v>
+        <v>0.38809618802514323</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67827476495219796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.81185611471986396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -658,30 +659,30 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C6" ca="1" si="1">RAND()</f>
-        <v>0.50707288228027803</v>
+        <v>0.12107182876514999</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7443073687118219</v>
+        <v>0.74749523570706744</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27789806571670317</v>
+        <v>0.77550253527444135</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20552914000197564</v>
+        <v>0.25860530751538424</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77110917973344983</v>
+        <v>9.728535078642353E-2</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.635696123290959E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.41932134502821261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -690,30 +691,30 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83593947035431815</v>
+        <v>0.93688406476599129</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64246749667867398</v>
+        <v>0.1402909320277641</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0904339784473764E-2</v>
+        <v>0.39301421167518658</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.607095048800085E-2</v>
+        <v>1.1964880688792645E-2</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71425583116744296</v>
+        <v>0.83831837606281889</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10972834519121288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.68470328194876096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -722,27 +723,74 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53488630355053191</v>
+        <v>0.88613869268139323</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88174468901724623</v>
+        <v>0.70239504216226323</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3789963215846448</v>
+        <v>0.19380111549283197</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61522599244045195</v>
+        <v>0.65909426438742258</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11714836209234725</v>
+        <v>0.52523727778182128</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12050683041552723</v>
+        <v>0.15603041415733598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D108F365-68C0-4B0A-8A29-633240DB302A}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
